--- a/Datos/coes_2016.xlsx
+++ b/Datos/coes_2016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminmunozrojas/pCloud Sync/7_COES/5_Otros/Redes_COES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminmunozrojas/pCloud Sync/7_COES/5_Otros/Redes_COES/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F1BF9D-1B3C-C540-9F34-96834065B0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D9C870-38DD-AE45-9F5A-F8D4FD0F344F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14940" xr2:uid="{DA4CDDE7-0EA1-A843-A763-B50F4E9E9758}"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="27240" windowHeight="14940" xr2:uid="{A06929DB-A741-FF40-90DC-111EBD62C494}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,195 +30,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
-    <t>Aldo Madariaga</t>
+    <t>A. Madariaga</t>
   </si>
   <si>
-    <t>Alfredo Joignant</t>
+    <t>A. Joignant</t>
   </si>
   <si>
-    <t>Ana Figueiredo</t>
+    <t>A. Figueiredo</t>
   </si>
   <si>
-    <t>Ana Velitchkova</t>
+    <t>A. Velitchkova</t>
   </si>
   <si>
-    <t>Claudia Heiss</t>
+    <t>C. Heiss</t>
   </si>
   <si>
-    <t>Claudia Sanhueza</t>
+    <t>C. Sanhueza</t>
   </si>
   <si>
-    <t>Cristian Doñas</t>
+    <t>C. Doñas</t>
   </si>
   <si>
-    <t>Daniel Hojman</t>
+    <t>D. Hojman</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniela Jara </t>
+    <t xml:space="preserve">D. Jara </t>
   </si>
   <si>
-    <t>Dante Contreras</t>
+    <t>D. Contreras</t>
   </si>
   <si>
-    <t>Dariela Sharim</t>
+    <t>D. Sharim</t>
   </si>
   <si>
-    <t xml:space="preserve">Diana Kruger </t>
+    <t xml:space="preserve">D. Kruger </t>
   </si>
   <si>
-    <t>Emmanuelle Barozet</t>
+    <t>E. Barozet</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ernesto López</t>
-    </r>
+    <t>E. López</t>
   </si>
   <si>
-    <t>Fabian Duarte</t>
+    <t>F. Duarte</t>
   </si>
   <si>
-    <t>Felipe Link</t>
+    <t>F. Link</t>
   </si>
   <si>
-    <t>Francisca Gutiérrez</t>
+    <t>F. Gutiérrez</t>
   </si>
   <si>
-    <t>Gloria Jiménez-Moya</t>
+    <t>G. Jiménez-Moya</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Héctor Carvacho</t>
-    </r>
+    <t>H. Carvacho</t>
   </si>
   <si>
-    <t>Hugo Romero</t>
+    <t>H. Romero</t>
   </si>
   <si>
-    <t>Ignacio Madero-Cabib</t>
+    <t>I. Madero-Cabib</t>
   </si>
   <si>
-    <t>Ismael Puga</t>
+    <t>I. Puga</t>
   </si>
   <si>
-    <t>Javier Couso</t>
+    <t>J. Couso</t>
   </si>
   <si>
-    <t>Jesssica Pineda</t>
+    <t>J. Atria</t>
   </si>
   <si>
-    <t>Jorge Atria</t>
+    <t>JC. Castillo</t>
   </si>
   <si>
-    <t>Juan Carlos Castillo</t>
+    <t>K. Sehnbruch</t>
   </si>
   <si>
-    <t>Kirsten Sehnbruch</t>
+    <t>L. Valenzuela</t>
   </si>
   <si>
-    <t>Luis Valenzuela</t>
+    <t>M. Gárate</t>
   </si>
   <si>
-    <t>Manuel Gárate</t>
+    <t>ML. Méndez</t>
   </si>
   <si>
-    <t>María Luisa Méndez</t>
+    <t>M. Bargsted</t>
   </si>
   <si>
-    <t>Matías Bargsted</t>
+    <t>M. Garretón</t>
   </si>
   <si>
-    <t>Matías Garretón</t>
+    <t>M. Sanfuentes</t>
   </si>
   <si>
-    <t>Matías Sanfuentes</t>
+    <t>M. Morales</t>
   </si>
   <si>
-    <t>Mauricio Morales</t>
+    <t>M. Basaure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mauro Basaure</t>
-    </r>
+    <t>M. Gerber</t>
   </si>
   <si>
-    <t>Mónica Gerber</t>
+    <t>N. Angelcos</t>
   </si>
   <si>
-    <t>Nicolás Angelcos</t>
+    <t>N. Grau</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nicolás Grau</t>
-    </r>
+    <t>N. Somma</t>
   </si>
   <si>
-    <t>Nicolás Somma</t>
+    <t>P. De Tezanos</t>
   </si>
   <si>
-    <t>Pablo De Tezanos</t>
+    <t>P. Bordón</t>
   </si>
   <si>
-    <t>Paola Bordón</t>
+    <t>P. Aroca</t>
   </si>
   <si>
-    <t>Patricio Aroca</t>
+    <t>P. Cumsille</t>
   </si>
   <si>
-    <t>Patricio Cumsille</t>
+    <t>P. Navia</t>
   </si>
   <si>
-    <t>Patricio Navia</t>
+    <t>P. Luengo</t>
   </si>
   <si>
-    <t>Paula Luengo</t>
+    <t>P. Clech</t>
   </si>
   <si>
-    <t>Pauline Clech</t>
+    <t>R. González</t>
   </si>
   <si>
-    <t>Roberto González</t>
+    <t>S. Donoso</t>
   </si>
   <si>
-    <t>Sofía Donoso</t>
+    <t>V. Paredes</t>
   </si>
   <si>
-    <t>Valentina Paredes</t>
-  </si>
-  <si>
-    <t>Vicente Espinoza</t>
+    <t>V. Espinoza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,20 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,7 +225,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF22AFB3"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -261,7 +248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE045AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,21 +277,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -608,16 +628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1C544A-70F7-AF40-B443-D6DBDC5933FC}">
-  <dimension ref="A1:AY51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055D48F2-2F5B-DE4A-BCE0-FF5F43626BC6}">
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AY51"/>
+      <selection sqref="A1:AX50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -766,16 +786,13 @@
       <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -921,11 +938,8 @@
       <c r="AX2" s="1">
         <v>0</v>
       </c>
-      <c r="AY2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1001,8 +1015,8 @@
       <c r="Y3" s="1">
         <v>0</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0</v>
+      <c r="Z3" s="4">
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1025,10 +1039,10 @@
       <c r="AG3" s="1">
         <v>0</v>
       </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4">
         <v>1</v>
       </c>
       <c r="AJ3" s="1">
@@ -1076,11 +1090,8 @@
       <c r="AX3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1091,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1108,7 +1119,7 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="1">
@@ -1132,11 +1143,11 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1213,8 +1224,8 @@
       <c r="AR4" s="1">
         <v>0</v>
       </c>
-      <c r="AS4" s="1">
-        <v>0</v>
+      <c r="AS4" s="6">
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1222,8 +1233,8 @@
       <c r="AU4" s="1">
         <v>0</v>
       </c>
-      <c r="AV4" s="1">
-        <v>0</v>
+      <c r="AV4" s="6">
+        <v>1</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
@@ -1231,11 +1242,8 @@
       <c r="AX4" s="1">
         <v>0</v>
       </c>
-      <c r="AY4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1245,11 +1253,11 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="D5" s="6">
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1287,11 +1295,11 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -1368,8 +1376,8 @@
       <c r="AR5" s="1">
         <v>0</v>
       </c>
-      <c r="AS5" s="1">
-        <v>0</v>
+      <c r="AS5" s="6">
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1377,8 +1385,8 @@
       <c r="AU5" s="1">
         <v>0</v>
       </c>
-      <c r="AV5" s="1">
-        <v>0</v>
+      <c r="AV5" s="6">
+        <v>1</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1386,11 +1394,8 @@
       <c r="AX5" s="1">
         <v>0</v>
       </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1541,11 +1546,8 @@
       <c r="AX6" s="1">
         <v>0</v>
       </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1585,11 +1587,11 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1696,11 +1698,8 @@
       <c r="AX7" s="1">
         <v>0</v>
       </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1722,8 +1721,8 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1758,7 +1757,7 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="7">
         <v>1</v>
       </c>
       <c r="U8" s="1">
@@ -1767,7 +1766,7 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="1">
@@ -1791,11 +1790,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1</v>
+      <c r="AE8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1851,11 +1850,8 @@
       <c r="AX8" s="1">
         <v>0</v>
       </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1898,8 +1894,8 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
+      <c r="O9" s="8">
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1931,14 +1927,14 @@
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1">
-        <v>0</v>
+      <c r="Z9" s="9">
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
+      <c r="AB9" s="10">
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -1967,8 +1963,8 @@
       <c r="AK9" s="1">
         <v>0</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
+      <c r="AL9" s="9">
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -1979,8 +1975,8 @@
       <c r="AO9" s="1">
         <v>0</v>
       </c>
-      <c r="AP9" s="1">
-        <v>0</v>
+      <c r="AP9" s="9">
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -1997,8 +1993,8 @@
       <c r="AU9" s="1">
         <v>0</v>
       </c>
-      <c r="AV9" s="1">
-        <v>0</v>
+      <c r="AV9" s="9">
+        <v>1</v>
       </c>
       <c r="AW9" s="1">
         <v>0</v>
@@ -2006,11 +2002,8 @@
       <c r="AX9" s="1">
         <v>0</v>
       </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2013,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -2039,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -2113,8 +2106,8 @@
       <c r="AH10" s="1">
         <v>0</v>
       </c>
-      <c r="AI10" s="1">
-        <v>0</v>
+      <c r="AI10" s="11">
+        <v>1</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
@@ -2161,11 +2154,8 @@
       <c r="AX10" s="1">
         <v>0</v>
       </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2197,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -2214,8 +2204,8 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
-        <v>0</v>
+      <c r="Q11" s="6">
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2247,14 +2237,14 @@
       <c r="AA11" s="1">
         <v>0</v>
       </c>
-      <c r="AB11" s="1">
-        <v>0</v>
+      <c r="AB11" s="8">
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
-        <v>0</v>
+      <c r="AD11" s="6">
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -2283,8 +2273,8 @@
       <c r="AM11" s="1">
         <v>0</v>
       </c>
-      <c r="AN11" s="1">
-        <v>0</v>
+      <c r="AN11" s="6">
+        <v>1</v>
       </c>
       <c r="AO11" s="1">
         <v>0</v>
@@ -2298,8 +2288,8 @@
       <c r="AR11" s="1">
         <v>0</v>
       </c>
-      <c r="AS11" s="1">
-        <v>0</v>
+      <c r="AS11" s="7">
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2316,11 +2306,8 @@
       <c r="AX11" s="1">
         <v>0</v>
       </c>
-      <c r="AY11" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2423,17 +2410,17 @@
       <c r="AH12" s="1">
         <v>0</v>
       </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>1</v>
+      <c r="AI12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2471,11 +2458,8 @@
       <c r="AX12" s="1">
         <v>0</v>
       </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2513,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -2626,11 +2610,8 @@
       <c r="AX13" s="1">
         <v>0</v>
       </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2649,8 +2630,8 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
+      <c r="G14" s="6">
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2671,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -2709,8 +2690,8 @@
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="1">
-        <v>0</v>
+      <c r="AA14" s="7">
+        <v>1</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -2745,11 +2726,11 @@
       <c r="AL14" s="1">
         <v>0</v>
       </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>0</v>
+      <c r="AM14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="6">
+        <v>1</v>
       </c>
       <c r="AO14" s="1">
         <v>0</v>
@@ -2778,14 +2759,11 @@
       <c r="AW14" s="1">
         <v>0</v>
       </c>
-      <c r="AX14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="3">
+      <c r="AX14" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2804,14 +2782,14 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
+      <c r="G15" s="7">
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
+      <c r="I15" s="8">
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2829,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
+      <c r="Q15" s="6">
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2873,8 +2851,8 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
-        <v>0</v>
+      <c r="AD15" s="6">
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -2936,11 +2914,8 @@
       <c r="AX15" s="1">
         <v>0</v>
       </c>
-      <c r="AY15" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2987,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -3085,17 +3060,14 @@
       <c r="AV16" s="1">
         <v>0</v>
       </c>
-      <c r="AW16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="1">
+      <c r="AW16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3126,8 +3098,8 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
+      <c r="K17" s="6">
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -3138,14 +3110,14 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
+      <c r="O17" s="6">
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -3183,8 +3155,8 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="1">
-        <v>0</v>
+      <c r="AD17" s="6">
+        <v>1</v>
       </c>
       <c r="AE17" s="1">
         <v>0</v>
@@ -3213,8 +3185,8 @@
       <c r="AM17" s="1">
         <v>0</v>
       </c>
-      <c r="AN17" s="1">
-        <v>0</v>
+      <c r="AN17" s="6">
+        <v>1</v>
       </c>
       <c r="AO17" s="1">
         <v>0</v>
@@ -3246,11 +3218,8 @@
       <c r="AX17" s="1">
         <v>0</v>
       </c>
-      <c r="AY17" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3260,11 +3229,11 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3303,21 +3272,21 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="5">
         <v>1</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="7">
         <v>1</v>
       </c>
       <c r="X18" s="1">
@@ -3383,8 +3352,8 @@
       <c r="AR18" s="1">
         <v>0</v>
       </c>
-      <c r="AS18" s="1">
-        <v>0</v>
+      <c r="AS18" s="6">
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
         <v>0</v>
@@ -3392,8 +3361,8 @@
       <c r="AU18" s="1">
         <v>0</v>
       </c>
-      <c r="AV18" s="1">
-        <v>0</v>
+      <c r="AV18" s="6">
+        <v>1</v>
       </c>
       <c r="AW18" s="1">
         <v>0</v>
@@ -3401,11 +3370,8 @@
       <c r="AX18" s="1">
         <v>0</v>
       </c>
-      <c r="AY18" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3415,11 +3381,11 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3457,14 +3423,14 @@
       <c r="Q19" s="1">
         <v>0</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -3511,8 +3477,8 @@
       <c r="AI19" s="1">
         <v>0</v>
       </c>
-      <c r="AJ19" s="1">
-        <v>0</v>
+      <c r="AJ19" s="7">
+        <v>1</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
@@ -3538,16 +3504,16 @@
       <c r="AR19" s="1">
         <v>0</v>
       </c>
-      <c r="AS19" s="1">
-        <v>0</v>
+      <c r="AS19" s="6">
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
       </c>
-      <c r="AU19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="3">
+      <c r="AU19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="6">
         <v>1</v>
       </c>
       <c r="AW19" s="1">
@@ -3556,11 +3522,8 @@
       <c r="AX19" s="1">
         <v>0</v>
       </c>
-      <c r="AY19" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3582,7 +3545,7 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="1">
@@ -3615,10 +3578,10 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="1">
@@ -3651,11 +3614,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>1</v>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3666,11 +3629,11 @@
       <c r="AI20" s="1">
         <v>0</v>
       </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>1</v>
+      <c r="AJ20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -3693,17 +3656,17 @@
       <c r="AR20" s="1">
         <v>0</v>
       </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="3">
-        <v>1</v>
+      <c r="AS20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0</v>
       </c>
       <c r="AW20" s="1">
         <v>0</v>
@@ -3711,11 +3674,8 @@
       <c r="AX20" s="1">
         <v>0</v>
       </c>
-      <c r="AY20" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3767,7 +3727,7 @@
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="5">
         <v>1</v>
       </c>
       <c r="S21" s="1">
@@ -3776,7 +3736,7 @@
       <c r="T21" s="1">
         <v>0</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="1">
@@ -3866,11 +3826,8 @@
       <c r="AX21" s="1">
         <v>0</v>
       </c>
-      <c r="AY21" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3934,7 +3891,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -4021,11 +3978,8 @@
       <c r="AX22" s="1">
         <v>0</v>
       </c>
-      <c r="AY22" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -4047,7 +4001,7 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="1">
@@ -4077,7 +4031,7 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="7">
         <v>1</v>
       </c>
       <c r="S23" s="1">
@@ -4092,7 +4046,7 @@
       <c r="V23" s="1">
         <v>0</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="1">
@@ -4131,11 +4085,11 @@
       <c r="AI23" s="1">
         <v>0</v>
       </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>1</v>
+      <c r="AJ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -4176,11 +4130,8 @@
       <c r="AX23" s="1">
         <v>0</v>
       </c>
-      <c r="AY23" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4250,7 +4201,7 @@
       <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
@@ -4331,11 +4282,8 @@
       <c r="AX24" s="1">
         <v>0</v>
       </c>
-      <c r="AY24" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4408,7 +4356,7 @@
       <c r="X25" s="1">
         <v>0</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="3">
         <v>0</v>
       </c>
       <c r="Z25" s="1">
@@ -4486,22 +4434,19 @@
       <c r="AX25" s="1">
         <v>0</v>
       </c>
-      <c r="AY25" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -4515,8 +4460,8 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
+      <c r="I26" s="9">
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4563,10 +4508,10 @@
       <c r="X26" s="1">
         <v>0</v>
       </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="1">
@@ -4593,8 +4538,8 @@
       <c r="AH26" s="1">
         <v>0</v>
       </c>
-      <c r="AI26" s="1">
-        <v>0</v>
+      <c r="AI26" s="11">
+        <v>1</v>
       </c>
       <c r="AJ26" s="1">
         <v>0</v>
@@ -4617,8 +4562,8 @@
       <c r="AP26" s="1">
         <v>0</v>
       </c>
-      <c r="AQ26" s="1">
-        <v>0</v>
+      <c r="AQ26" s="7">
+        <v>1</v>
       </c>
       <c r="AR26" s="1">
         <v>0</v>
@@ -4641,11 +4586,8 @@
       <c r="AX26" s="1">
         <v>0</v>
       </c>
-      <c r="AY26" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4685,8 +4627,8 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
+      <c r="N27" s="7">
+        <v>1</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -4724,7 +4666,7 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="1">
@@ -4787,8 +4729,8 @@
       <c r="AU27" s="1">
         <v>0</v>
       </c>
-      <c r="AV27" s="1">
-        <v>0</v>
+      <c r="AV27" s="7">
+        <v>1</v>
       </c>
       <c r="AW27" s="1">
         <v>0</v>
@@ -4796,11 +4738,8 @@
       <c r="AX27" s="1">
         <v>0</v>
       </c>
-      <c r="AY27" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4825,14 +4764,14 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
+      <c r="I28" s="10">
+        <v>1</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="1">
-        <v>0</v>
+      <c r="K28" s="8">
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -4882,7 +4821,7 @@
       <c r="AA28" s="1">
         <v>0</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28" s="3">
         <v>0</v>
       </c>
       <c r="AC28" s="1">
@@ -4894,11 +4833,11 @@
       <c r="AE28" s="1">
         <v>0</v>
       </c>
-      <c r="AF28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>0</v>
+      <c r="AF28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>1</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -4918,8 +4857,8 @@
       <c r="AM28" s="1">
         <v>0</v>
       </c>
-      <c r="AN28" s="1">
-        <v>0</v>
+      <c r="AN28" s="12">
+        <v>1</v>
       </c>
       <c r="AO28" s="1">
         <v>0</v>
@@ -4939,8 +4878,8 @@
       <c r="AT28" s="1">
         <v>0</v>
       </c>
-      <c r="AU28" s="1">
-        <v>0</v>
+      <c r="AU28" s="7">
+        <v>1</v>
       </c>
       <c r="AV28" s="1">
         <v>0</v>
@@ -4951,11 +4890,8 @@
       <c r="AX28" s="1">
         <v>0</v>
       </c>
-      <c r="AY28" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -5040,7 +4976,7 @@
       <c r="AB29" s="1">
         <v>0</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="3">
         <v>0</v>
       </c>
       <c r="AD29" s="1">
@@ -5097,8 +5033,8 @@
       <c r="AU29" s="1">
         <v>0</v>
       </c>
-      <c r="AV29" s="3">
-        <v>1</v>
+      <c r="AV29" s="1">
+        <v>0</v>
       </c>
       <c r="AW29" s="1">
         <v>0</v>
@@ -5106,11 +5042,8 @@
       <c r="AX29" s="1">
         <v>0</v>
       </c>
-      <c r="AY29" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -5141,8 +5074,8 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
+      <c r="K30" s="6">
+        <v>1</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -5153,14 +5086,14 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
+      <c r="O30" s="6">
+        <v>1</v>
       </c>
       <c r="P30" s="1">
         <v>0</v>
       </c>
-      <c r="Q30" s="1">
-        <v>0</v>
+      <c r="Q30" s="6">
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5198,8 +5131,8 @@
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
-        <v>0</v>
+      <c r="AD30" s="6">
+        <v>1</v>
       </c>
       <c r="AE30" s="1">
         <v>0</v>
@@ -5219,8 +5152,8 @@
       <c r="AJ30" s="1">
         <v>0</v>
       </c>
-      <c r="AK30" s="1">
-        <v>0</v>
+      <c r="AK30" s="5">
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -5228,8 +5161,8 @@
       <c r="AM30" s="1">
         <v>0</v>
       </c>
-      <c r="AN30" s="1">
-        <v>0</v>
+      <c r="AN30" s="6">
+        <v>1</v>
       </c>
       <c r="AO30" s="1">
         <v>0</v>
@@ -5261,11 +5194,8 @@
       <c r="AX30" s="1">
         <v>0</v>
       </c>
-      <c r="AY30" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -5287,8 +5217,8 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
+      <c r="H31" s="7">
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -5323,8 +5253,8 @@
       <c r="S31" s="1">
         <v>0</v>
       </c>
-      <c r="T31" s="1">
-        <v>0</v>
+      <c r="T31" s="7">
+        <v>1</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5356,7 +5286,7 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AE31" s="3">
         <v>0</v>
       </c>
       <c r="AF31" s="1">
@@ -5377,11 +5307,11 @@
       <c r="AK31" s="1">
         <v>0</v>
       </c>
-      <c r="AL31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>0</v>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>1</v>
       </c>
       <c r="AN31" s="1">
         <v>0</v>
@@ -5413,14 +5343,11 @@
       <c r="AW31" s="1">
         <v>0</v>
       </c>
-      <c r="AX31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="1">
-        <v>0</v>
+      <c r="AX31" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -5442,8 +5369,8 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -5478,8 +5405,8 @@
       <c r="S32" s="1">
         <v>0</v>
       </c>
-      <c r="T32" s="3">
-        <v>1</v>
+      <c r="T32" s="1">
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
@@ -5502,8 +5429,8 @@
       <c r="AA32" s="1">
         <v>0</v>
       </c>
-      <c r="AB32" s="1">
-        <v>0</v>
+      <c r="AB32" s="12">
+        <v>1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
@@ -5514,11 +5441,11 @@
       <c r="AE32" s="1">
         <v>0</v>
       </c>
-      <c r="AF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>0</v>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="12">
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5538,8 +5465,8 @@
       <c r="AM32" s="1">
         <v>0</v>
       </c>
-      <c r="AN32" s="3">
-        <v>1</v>
+      <c r="AN32" s="1">
+        <v>0</v>
       </c>
       <c r="AO32" s="1">
         <v>0</v>
@@ -5571,11 +5498,8 @@
       <c r="AX32" s="1">
         <v>0</v>
       </c>
-      <c r="AY32" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5657,8 +5581,8 @@
       <c r="AA33" s="1">
         <v>0</v>
       </c>
-      <c r="AB33" s="1">
-        <v>0</v>
+      <c r="AB33" s="12">
+        <v>1</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
@@ -5669,10 +5593,10 @@
       <c r="AE33" s="1">
         <v>0</v>
       </c>
-      <c r="AF33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="1">
+      <c r="AF33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="3">
         <v>0</v>
       </c>
       <c r="AH33" s="1">
@@ -5726,19 +5650,16 @@
       <c r="AX33" s="1">
         <v>0</v>
       </c>
-      <c r="AY33" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
+      <c r="C34" s="5">
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -5830,7 +5751,7 @@
       <c r="AG34" s="1">
         <v>0</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AH34" s="3">
         <v>0</v>
       </c>
       <c r="AI34" s="1">
@@ -5881,18 +5802,15 @@
       <c r="AX34" s="1">
         <v>0</v>
       </c>
-      <c r="AY34" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>1</v>
       </c>
       <c r="D35" s="1">
@@ -5913,14 +5831,14 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
-        <v>0</v>
+      <c r="J35" s="11">
+        <v>1</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="L35" s="1">
-        <v>0</v>
+      <c r="L35" s="10">
+        <v>1</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -5955,14 +5873,14 @@
       <c r="W35" s="1">
         <v>0</v>
       </c>
-      <c r="X35" s="1">
-        <v>0</v>
+      <c r="X35" s="11">
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1">
-        <v>0</v>
+      <c r="Z35" s="11">
+        <v>1</v>
       </c>
       <c r="AA35" s="1">
         <v>0</v>
@@ -5988,14 +5906,14 @@
       <c r="AH35" s="1">
         <v>0</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AI35" s="3">
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
         <v>0</v>
       </c>
-      <c r="AK35" s="1">
-        <v>0</v>
+      <c r="AK35" s="5">
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -6036,11 +5954,8 @@
       <c r="AX35" s="1">
         <v>0</v>
       </c>
-      <c r="AY35" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -6074,8 +5989,8 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="L36" s="3">
-        <v>1</v>
+      <c r="L36" s="1">
+        <v>0</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6095,11 +6010,11 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
+      <c r="S36" s="7">
+        <v>1</v>
+      </c>
+      <c r="T36" s="7">
+        <v>1</v>
       </c>
       <c r="U36" s="1">
         <v>0</v>
@@ -6107,8 +6022,8 @@
       <c r="V36" s="1">
         <v>0</v>
       </c>
-      <c r="W36" s="1">
-        <v>0</v>
+      <c r="W36" s="7">
+        <v>1</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
@@ -6146,14 +6061,14 @@
       <c r="AI36" s="1">
         <v>0</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ36" s="3">
         <v>0</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
-      <c r="AL36" s="3">
-        <v>1</v>
+      <c r="AL36" s="1">
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6179,8 +6094,8 @@
       <c r="AT36" s="1">
         <v>0</v>
       </c>
-      <c r="AU36" s="1">
-        <v>0</v>
+      <c r="AU36" s="5">
+        <v>1</v>
       </c>
       <c r="AV36" s="1">
         <v>0</v>
@@ -6191,11 +6106,8 @@
       <c r="AX36" s="1">
         <v>0</v>
       </c>
-      <c r="AY36" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -6229,8 +6141,8 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
-        <v>0</v>
+      <c r="L37" s="7">
+        <v>1</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6253,8 +6165,8 @@
       <c r="S37" s="1">
         <v>0</v>
       </c>
-      <c r="T37" s="3">
-        <v>1</v>
+      <c r="T37" s="1">
+        <v>0</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -6262,8 +6174,8 @@
       <c r="V37" s="1">
         <v>0</v>
       </c>
-      <c r="W37" s="3">
-        <v>1</v>
+      <c r="W37" s="1">
+        <v>0</v>
       </c>
       <c r="X37" s="1">
         <v>0</v>
@@ -6283,8 +6195,8 @@
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="1">
-        <v>0</v>
+      <c r="AD37" s="5">
+        <v>1</v>
       </c>
       <c r="AE37" s="1">
         <v>0</v>
@@ -6298,13 +6210,13 @@
       <c r="AH37" s="1">
         <v>0</v>
       </c>
-      <c r="AI37" s="1">
-        <v>0</v>
+      <c r="AI37" s="5">
+        <v>1</v>
       </c>
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AK37" s="3">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
@@ -6337,8 +6249,8 @@
       <c r="AU37" s="1">
         <v>0</v>
       </c>
-      <c r="AV37" s="3">
-        <v>1</v>
+      <c r="AV37" s="1">
+        <v>0</v>
       </c>
       <c r="AW37" s="1">
         <v>0</v>
@@ -6346,11 +6258,8 @@
       <c r="AX37" s="1">
         <v>0</v>
       </c>
-      <c r="AY37" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -6375,8 +6284,8 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
+      <c r="I38" s="9">
+        <v>1</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6384,8 +6293,8 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <v>1</v>
+      <c r="L38" s="1">
+        <v>0</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6441,8 +6350,8 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-      <c r="AE38" s="3">
-        <v>1</v>
+      <c r="AE38" s="1">
+        <v>0</v>
       </c>
       <c r="AF38" s="1">
         <v>0</v>
@@ -6456,13 +6365,13 @@
       <c r="AI38" s="1">
         <v>0</v>
       </c>
-      <c r="AJ38" s="3">
-        <v>1</v>
+      <c r="AJ38" s="1">
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AL38" s="3">
         <v>0</v>
       </c>
       <c r="AM38" s="1">
@@ -6492,8 +6401,8 @@
       <c r="AU38" s="1">
         <v>0</v>
       </c>
-      <c r="AV38" s="1">
-        <v>0</v>
+      <c r="AV38" s="9">
+        <v>1</v>
       </c>
       <c r="AW38" s="1">
         <v>0</v>
@@ -6501,11 +6410,8 @@
       <c r="AX38" s="1">
         <v>0</v>
       </c>
-      <c r="AY38" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -6545,8 +6451,8 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
+      <c r="N39" s="7">
+        <v>1</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
@@ -6596,8 +6502,8 @@
       <c r="AD39" s="1">
         <v>0</v>
       </c>
-      <c r="AE39" s="1">
-        <v>0</v>
+      <c r="AE39" s="5">
+        <v>1</v>
       </c>
       <c r="AF39" s="1">
         <v>0</v>
@@ -6620,7 +6526,7 @@
       <c r="AL39" s="1">
         <v>0</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AM39" s="3">
         <v>0</v>
       </c>
       <c r="AN39" s="1">
@@ -6656,11 +6562,8 @@
       <c r="AX39" s="1">
         <v>0</v>
       </c>
-      <c r="AY39" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -6691,8 +6594,8 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="1">
-        <v>0</v>
+      <c r="K40" s="6">
+        <v>1</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -6703,14 +6606,14 @@
       <c r="N40" s="1">
         <v>0</v>
       </c>
-      <c r="O40" s="1">
-        <v>0</v>
+      <c r="O40" s="6">
+        <v>1</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0</v>
+      <c r="Q40" s="6">
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6742,20 +6645,20 @@
       <c r="AA40" s="1">
         <v>0</v>
       </c>
-      <c r="AB40" s="1">
-        <v>0</v>
+      <c r="AB40" s="12">
+        <v>1</v>
       </c>
       <c r="AC40" s="1">
         <v>0</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
+      <c r="AD40" s="6">
+        <v>1</v>
       </c>
       <c r="AE40" s="1">
         <v>0</v>
       </c>
-      <c r="AF40" s="3">
-        <v>1</v>
+      <c r="AF40" s="1">
+        <v>0</v>
       </c>
       <c r="AG40" s="1">
         <v>0</v>
@@ -6778,7 +6681,7 @@
       <c r="AM40" s="1">
         <v>0</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AN40" s="3">
         <v>0</v>
       </c>
       <c r="AO40" s="1">
@@ -6811,11 +6714,8 @@
       <c r="AX40" s="1">
         <v>0</v>
       </c>
-      <c r="AY40" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -6936,7 +6836,7 @@
       <c r="AN41" s="1">
         <v>0</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AO41" s="3">
         <v>0</v>
       </c>
       <c r="AP41" s="1">
@@ -6966,11 +6866,8 @@
       <c r="AX41" s="1">
         <v>0</v>
       </c>
-      <c r="AY41" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -6995,8 +6892,8 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
+      <c r="I42" s="9">
+        <v>1</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -7094,7 +6991,7 @@
       <c r="AO42" s="1">
         <v>0</v>
       </c>
-      <c r="AP42" s="1">
+      <c r="AP42" s="3">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
@@ -7121,11 +7018,8 @@
       <c r="AX42" s="1">
         <v>0</v>
       </c>
-      <c r="AY42" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -7201,8 +7095,8 @@
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1">
-        <v>0</v>
+      <c r="Z43" s="7">
+        <v>1</v>
       </c>
       <c r="AA43" s="1">
         <v>0</v>
@@ -7252,7 +7146,7 @@
       <c r="AP43" s="1">
         <v>0</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="AQ43" s="3">
         <v>0</v>
       </c>
       <c r="AR43" s="1">
@@ -7276,11 +7170,8 @@
       <c r="AX43" s="1">
         <v>0</v>
       </c>
-      <c r="AY43" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -7410,7 +7301,7 @@
       <c r="AQ44" s="1">
         <v>0</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="AR44" s="3">
         <v>0</v>
       </c>
       <c r="AS44" s="1">
@@ -7419,8 +7310,8 @@
       <c r="AT44" s="1">
         <v>0</v>
       </c>
-      <c r="AU44" s="1">
-        <v>0</v>
+      <c r="AU44" s="7">
+        <v>1</v>
       </c>
       <c r="AV44" s="1">
         <v>0</v>
@@ -7431,11 +7322,8 @@
       <c r="AX44" s="1">
         <v>0</v>
       </c>
-      <c r="AY44" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -7445,11 +7333,11 @@
       <c r="C45" s="1">
         <v>0</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -7466,8 +7354,8 @@
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
+      <c r="K45" s="7">
+        <v>1</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -7487,11 +7375,11 @@
       <c r="Q45" s="1">
         <v>0</v>
       </c>
-      <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0</v>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -7568,7 +7456,7 @@
       <c r="AR45" s="1">
         <v>0</v>
       </c>
-      <c r="AS45" s="1">
+      <c r="AS45" s="3">
         <v>0</v>
       </c>
       <c r="AT45" s="1">
@@ -7577,8 +7465,8 @@
       <c r="AU45" s="1">
         <v>0</v>
       </c>
-      <c r="AV45" s="1">
-        <v>0</v>
+      <c r="AV45" s="6">
+        <v>1</v>
       </c>
       <c r="AW45" s="1">
         <v>0</v>
@@ -7586,11 +7474,8 @@
       <c r="AX45" s="1">
         <v>0</v>
       </c>
-      <c r="AY45" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -7645,8 +7530,8 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="3">
-        <v>1</v>
+      <c r="S46" s="1">
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -7726,7 +7611,7 @@
       <c r="AS46" s="1">
         <v>0</v>
       </c>
-      <c r="AT46" s="1">
+      <c r="AT46" s="3">
         <v>0</v>
       </c>
       <c r="AU46" s="1">
@@ -7741,11 +7626,8 @@
       <c r="AX46" s="1">
         <v>0</v>
       </c>
-      <c r="AY46" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -7800,11 +7682,11 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0</v>
+      <c r="S47" s="7">
+        <v>1</v>
+      </c>
+      <c r="T47" s="5">
+        <v>1</v>
       </c>
       <c r="U47" s="1">
         <v>0</v>
@@ -7827,8 +7709,8 @@
       <c r="AA47" s="1">
         <v>0</v>
       </c>
-      <c r="AB47" s="1">
-        <v>0</v>
+      <c r="AB47" s="7">
+        <v>1</v>
       </c>
       <c r="AC47" s="1">
         <v>0</v>
@@ -7851,8 +7733,8 @@
       <c r="AI47" s="1">
         <v>0</v>
       </c>
-      <c r="AJ47" s="1">
-        <v>0</v>
+      <c r="AJ47" s="5">
+        <v>1</v>
       </c>
       <c r="AK47" s="1">
         <v>0</v>
@@ -7875,16 +7757,16 @@
       <c r="AQ47" s="1">
         <v>0</v>
       </c>
-      <c r="AR47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="1">
-        <v>0</v>
+      <c r="AR47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="5">
+        <v>1</v>
       </c>
       <c r="AT47" s="1">
         <v>0</v>
       </c>
-      <c r="AU47" s="1">
+      <c r="AU47" s="3">
         <v>0</v>
       </c>
       <c r="AV47" s="1">
@@ -7896,11 +7778,8 @@
       <c r="AX47" s="1">
         <v>0</v>
       </c>
-      <c r="AY47" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -7910,11 +7789,11 @@
       <c r="C48" s="1">
         <v>0</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -7925,8 +7804,8 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
-        <v>0</v>
+      <c r="I48" s="9">
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -7952,14 +7831,14 @@
       <c r="Q48" s="1">
         <v>0</v>
       </c>
-      <c r="R48" s="1">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1</v>
+      <c r="R48" s="6">
+        <v>1</v>
+      </c>
+      <c r="S48" s="6">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
       </c>
       <c r="U48" s="1">
         <v>0</v>
@@ -7979,14 +7858,14 @@
       <c r="Z48" s="1">
         <v>0</v>
       </c>
-      <c r="AA48" s="1">
-        <v>0</v>
+      <c r="AA48" s="7">
+        <v>1</v>
       </c>
       <c r="AB48" s="1">
         <v>0</v>
       </c>
-      <c r="AC48" s="3">
-        <v>1</v>
+      <c r="AC48" s="1">
+        <v>0</v>
       </c>
       <c r="AD48" s="1">
         <v>0</v>
@@ -8009,11 +7888,11 @@
       <c r="AJ48" s="1">
         <v>0</v>
       </c>
-      <c r="AK48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="1">
-        <v>0</v>
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="9">
+        <v>1</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8033,16 +7912,16 @@
       <c r="AR48" s="1">
         <v>0</v>
       </c>
-      <c r="AS48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="3">
-        <v>1</v>
+      <c r="AS48" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0</v>
       </c>
       <c r="AU48" s="1">
         <v>0</v>
       </c>
-      <c r="AV48" s="1">
+      <c r="AV48" s="3">
         <v>0</v>
       </c>
       <c r="AW48" s="1">
@@ -8051,11 +7930,8 @@
       <c r="AX48" s="1">
         <v>0</v>
       </c>
-      <c r="AY48" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -8101,8 +7977,8 @@
       <c r="O49" s="1">
         <v>0</v>
       </c>
-      <c r="P49" s="1">
-        <v>0</v>
+      <c r="P49" s="7">
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
         <v>0</v>
@@ -8200,17 +8076,14 @@
       <c r="AV49" s="1">
         <v>0</v>
       </c>
-      <c r="AW49" s="1">
+      <c r="AW49" s="3">
         <v>0</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
       </c>
-      <c r="AY49" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -8256,8 +8129,8 @@
       <c r="O50" s="1">
         <v>0</v>
       </c>
-      <c r="P50" s="3">
-        <v>1</v>
+      <c r="P50" s="1">
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
@@ -8301,8 +8174,8 @@
       <c r="AD50" s="1">
         <v>0</v>
       </c>
-      <c r="AE50" s="1">
-        <v>0</v>
+      <c r="AE50" s="7">
+        <v>1</v>
       </c>
       <c r="AF50" s="1">
         <v>0</v>
@@ -8358,165 +8231,7 @@
       <c r="AW50" s="1">
         <v>0</v>
       </c>
-      <c r="AX50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="1">
+      <c r="AX50" s="3">
         <v>0</v>
       </c>
     </row>
